--- a/biology/Botanique/Violette_hérissée/Violette_hérissée.xlsx
+++ b/biology/Botanique/Violette_hérissée/Violette_hérissée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Violette_h%C3%A9riss%C3%A9e</t>
+          <t>Violette_hérissée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola hirta
 La violette hérissée (Viola hirta), appelée aussi violette velue, violette folle ou parfois violette sans odeur, est une plante herbacée vivace  du genre Viola de la famille des Violacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Violette_h%C3%A9riss%C3%A9e</t>
+          <t>Violette_hérissée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Caractéristiques
-Appareil végétatif
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Appareil végétatif
 Plante acaule de 5 à 30 cm, tige hérissée de poils raides
 Souche sans stolon ni rejets rampants
 Stipules lancéolées entières ou dentées
@@ -528,11 +545,11 @@
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Graine
-Fruit : capsule subglobuleuse velue[1]
+Fruit : capsule subglobuleuse velue
 Dissémination : myrmécochore
 Habitat et répartition
 Habitat type : ourlets basophiles médioeuropéens, commune dans les bois clairs, lisières, haies, pelouses, prairies et bords des chemins
-Aire de répartition : eurasiatique et subméditerranéenne[2]</t>
+Aire de répartition : eurasiatique et subméditerranéenne</t>
         </is>
       </c>
     </row>
